--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/Log/Log.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/Log/Log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="119">
   <si>
     <t>R1</t>
   </si>
@@ -12254,6 +12254,4008 @@
         <v>19.0</v>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>118</v>
+      </c>
+      <c r="B397" t="s">
+        <v>38</v>
+      </c>
+      <c r="C397" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" t="s">
+        <v>9</v>
+      </c>
+      <c r="E397" t="b">
+        <v>1</v>
+      </c>
+      <c r="F397" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G397" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H397" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I397" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>118</v>
+      </c>
+      <c r="B398" t="s">
+        <v>38</v>
+      </c>
+      <c r="C398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398" t="b">
+        <v>1</v>
+      </c>
+      <c r="F398" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G398" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H398" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I398" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>118</v>
+      </c>
+      <c r="B399" t="s">
+        <v>38</v>
+      </c>
+      <c r="C399" t="s">
+        <v>9</v>
+      </c>
+      <c r="D399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" t="b">
+        <v>1</v>
+      </c>
+      <c r="F399" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G399" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H399" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I399" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>118</v>
+      </c>
+      <c r="B400" t="s">
+        <v>38</v>
+      </c>
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" t="b">
+        <v>1</v>
+      </c>
+      <c r="F400" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G400" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H400" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I400" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>118</v>
+      </c>
+      <c r="B401" t="s">
+        <v>38</v>
+      </c>
+      <c r="C401" t="s">
+        <v>9</v>
+      </c>
+      <c r="D401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" t="b">
+        <v>1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H401" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I401" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>118</v>
+      </c>
+      <c r="B402" t="s">
+        <v>38</v>
+      </c>
+      <c r="C402" t="s">
+        <v>9</v>
+      </c>
+      <c r="D402" t="s">
+        <v>9</v>
+      </c>
+      <c r="E402" t="b">
+        <v>1</v>
+      </c>
+      <c r="F402" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H402" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I402" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>118</v>
+      </c>
+      <c r="B403" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" t="s">
+        <v>4</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" t="b">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>37981.75699187126</v>
+      </c>
+      <c r="G403" t="n">
+        <v>4631.328125</v>
+      </c>
+      <c r="H403" t="n">
+        <v>24350.42885733452</v>
+      </c>
+      <c r="I403" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>118</v>
+      </c>
+      <c r="B404" t="s">
+        <v>39</v>
+      </c>
+      <c r="C404" t="s">
+        <v>4</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>31907.36393789548</v>
+      </c>
+      <c r="G404" t="n">
+        <v>4600.1630859375</v>
+      </c>
+      <c r="H404" t="n">
+        <v>18307.200760405245</v>
+      </c>
+      <c r="I404" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>118</v>
+      </c>
+      <c r="B405" t="s">
+        <v>41</v>
+      </c>
+      <c r="C405" t="s">
+        <v>4</v>
+      </c>
+      <c r="D405" t="s">
+        <v>4</v>
+      </c>
+      <c r="E405" t="b">
+        <v>0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>24863.769775542376</v>
+      </c>
+      <c r="G405" t="n">
+        <v>3890.388427734375</v>
+      </c>
+      <c r="H405" t="n">
+        <v>11973.381343993304</v>
+      </c>
+      <c r="I405" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>118</v>
+      </c>
+      <c r="B406" t="s">
+        <v>42</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>16485.36183280662</v>
+      </c>
+      <c r="G406" t="n">
+        <v>3007.449462890625</v>
+      </c>
+      <c r="H406" t="n">
+        <v>4477.912366101295</v>
+      </c>
+      <c r="I406" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>118</v>
+      </c>
+      <c r="B407" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407" t="s">
+        <v>4</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" t="b">
+        <v>0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>38485.533332273015</v>
+      </c>
+      <c r="G407" t="n">
+        <v>4582.802734375</v>
+      </c>
+      <c r="H407" t="n">
+        <v>24902.73081342841</v>
+      </c>
+      <c r="I407" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>118</v>
+      </c>
+      <c r="B408" t="s">
+        <v>43</v>
+      </c>
+      <c r="C408" t="s">
+        <v>4</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+      <c r="E408" t="b">
+        <v>0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>33936.186623242495</v>
+      </c>
+      <c r="G408" t="n">
+        <v>4444.40234375</v>
+      </c>
+      <c r="H408" t="n">
+        <v>20491.78412118256</v>
+      </c>
+      <c r="I408" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>118</v>
+      </c>
+      <c r="B409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" t="s">
+        <v>4</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" t="b">
+        <v>0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>37981.75699187126</v>
+      </c>
+      <c r="G409" t="n">
+        <v>4631.328125</v>
+      </c>
+      <c r="H409" t="n">
+        <v>24350.42885733452</v>
+      </c>
+      <c r="I409" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>118</v>
+      </c>
+      <c r="B410" t="s">
+        <v>39</v>
+      </c>
+      <c r="C410" t="s">
+        <v>4</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+      <c r="E410" t="b">
+        <v>0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>31907.36393789548</v>
+      </c>
+      <c r="G410" t="n">
+        <v>4600.1630859375</v>
+      </c>
+      <c r="H410" t="n">
+        <v>18307.200760405245</v>
+      </c>
+      <c r="I410" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>118</v>
+      </c>
+      <c r="B411" t="s">
+        <v>41</v>
+      </c>
+      <c r="C411" t="s">
+        <v>4</v>
+      </c>
+      <c r="D411" t="s">
+        <v>4</v>
+      </c>
+      <c r="E411" t="b">
+        <v>0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>24863.769775542376</v>
+      </c>
+      <c r="G411" t="n">
+        <v>3890.388427734375</v>
+      </c>
+      <c r="H411" t="n">
+        <v>11973.381343993304</v>
+      </c>
+      <c r="I411" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>118</v>
+      </c>
+      <c r="B412" t="s">
+        <v>42</v>
+      </c>
+      <c r="C412" t="s">
+        <v>4</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4</v>
+      </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>16485.36183280662</v>
+      </c>
+      <c r="G412" t="n">
+        <v>3007.449462890625</v>
+      </c>
+      <c r="H412" t="n">
+        <v>4477.912366101295</v>
+      </c>
+      <c r="I412" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>118</v>
+      </c>
+      <c r="B413" t="s">
+        <v>40</v>
+      </c>
+      <c r="C413" t="s">
+        <v>4</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+      <c r="F413" t="n">
+        <v>38485.533332273015</v>
+      </c>
+      <c r="G413" t="n">
+        <v>4582.802734375</v>
+      </c>
+      <c r="H413" t="n">
+        <v>24902.73081342841</v>
+      </c>
+      <c r="I413" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>118</v>
+      </c>
+      <c r="B414" t="s">
+        <v>43</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
+      <c r="F414" t="n">
+        <v>33936.186623242495</v>
+      </c>
+      <c r="G414" t="n">
+        <v>4444.40234375</v>
+      </c>
+      <c r="H414" t="n">
+        <v>20491.78412118256</v>
+      </c>
+      <c r="I414" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>118</v>
+      </c>
+      <c r="B415" t="s">
+        <v>44</v>
+      </c>
+      <c r="C415" t="s">
+        <v>4</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
+      <c r="F415" t="n">
+        <v>34306.088994556936</v>
+      </c>
+      <c r="G415" t="n">
+        <v>4481.662109375</v>
+      </c>
+      <c r="H415" t="n">
+        <v>20824.4270091596</v>
+      </c>
+      <c r="I415" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>118</v>
+      </c>
+      <c r="B416" t="s">
+        <v>45</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4</v>
+      </c>
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
+      <c r="F416" t="n">
+        <v>31241.826651692485</v>
+      </c>
+      <c r="G416" t="n">
+        <v>4246.5810546875</v>
+      </c>
+      <c r="H416" t="n">
+        <v>17995.245692372417</v>
+      </c>
+      <c r="I416" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>118</v>
+      </c>
+      <c r="B417" t="s">
+        <v>46</v>
+      </c>
+      <c r="C417" t="s">
+        <v>4</v>
+      </c>
+      <c r="D417" t="s">
+        <v>4</v>
+      </c>
+      <c r="E417" t="b">
+        <v>0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>24068.35065131328</v>
+      </c>
+      <c r="G417" t="n">
+        <v>3857.16845703125</v>
+      </c>
+      <c r="H417" t="n">
+        <v>11211.182270575979</v>
+      </c>
+      <c r="I417" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>118</v>
+      </c>
+      <c r="B418" t="s">
+        <v>38</v>
+      </c>
+      <c r="C418" t="s">
+        <v>16</v>
+      </c>
+      <c r="D418" t="s">
+        <v>16</v>
+      </c>
+      <c r="E418" t="b">
+        <v>1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>54569.65757061087</v>
+      </c>
+      <c r="G418" t="n">
+        <v>5770.96240234375</v>
+      </c>
+      <c r="H418" t="n">
+        <v>39798.69521595084</v>
+      </c>
+      <c r="I418" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>118</v>
+      </c>
+      <c r="B419" t="s">
+        <v>39</v>
+      </c>
+      <c r="C419" t="s">
+        <v>16</v>
+      </c>
+      <c r="D419" t="s">
+        <v>16</v>
+      </c>
+      <c r="E419" t="b">
+        <v>1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>41057.6061619448</v>
+      </c>
+      <c r="G419" t="n">
+        <v>4954.9609375</v>
+      </c>
+      <c r="H419" t="n">
+        <v>27102.645037524635</v>
+      </c>
+      <c r="I419" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>118</v>
+      </c>
+      <c r="B420" t="s">
+        <v>41</v>
+      </c>
+      <c r="C420" t="s">
+        <v>16</v>
+      </c>
+      <c r="D420" t="s">
+        <v>16</v>
+      </c>
+      <c r="E420" t="b">
+        <v>1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>32416.70374274945</v>
+      </c>
+      <c r="G420" t="n">
+        <v>3904.415283203125</v>
+      </c>
+      <c r="H420" t="n">
+        <v>19512.288545377014</v>
+      </c>
+      <c r="I420" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>118</v>
+      </c>
+      <c r="B421" t="s">
+        <v>42</v>
+      </c>
+      <c r="C421" t="s">
+        <v>16</v>
+      </c>
+      <c r="D421" t="s">
+        <v>16</v>
+      </c>
+      <c r="E421" t="b">
+        <v>1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>21217.96476801864</v>
+      </c>
+      <c r="G421" t="n">
+        <v>2967.667236328125</v>
+      </c>
+      <c r="H421" t="n">
+        <v>9250.297419156943</v>
+      </c>
+      <c r="I421" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>118</v>
+      </c>
+      <c r="B422" t="s">
+        <v>40</v>
+      </c>
+      <c r="C422" t="s">
+        <v>16</v>
+      </c>
+      <c r="D422" t="s">
+        <v>16</v>
+      </c>
+      <c r="E422" t="b">
+        <v>1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>50634.66844951277</v>
+      </c>
+      <c r="G422" t="n">
+        <v>5322.0888671875</v>
+      </c>
+      <c r="H422" t="n">
+        <v>36312.579631916335</v>
+      </c>
+      <c r="I422" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>118</v>
+      </c>
+      <c r="B423" t="s">
+        <v>43</v>
+      </c>
+      <c r="C423" t="s">
+        <v>16</v>
+      </c>
+      <c r="D423" t="s">
+        <v>16</v>
+      </c>
+      <c r="E423" t="b">
+        <v>1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>48335.93297789429</v>
+      </c>
+      <c r="G423" t="n">
+        <v>5215.412109375</v>
+      </c>
+      <c r="H423" t="n">
+        <v>34120.520738819585</v>
+      </c>
+      <c r="I423" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>118</v>
+      </c>
+      <c r="B424" t="s">
+        <v>44</v>
+      </c>
+      <c r="C424" t="s">
+        <v>16</v>
+      </c>
+      <c r="D424" t="s">
+        <v>16</v>
+      </c>
+      <c r="E424" t="b">
+        <v>1</v>
+      </c>
+      <c r="F424" t="n">
+        <v>47825.53183036416</v>
+      </c>
+      <c r="G424" t="n">
+        <v>5324.14208984375</v>
+      </c>
+      <c r="H424" t="n">
+        <v>33501.38956122964</v>
+      </c>
+      <c r="I424" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>118</v>
+      </c>
+      <c r="B425" t="s">
+        <v>45</v>
+      </c>
+      <c r="C425" t="s">
+        <v>16</v>
+      </c>
+      <c r="D425" t="s">
+        <v>16</v>
+      </c>
+      <c r="E425" t="b">
+        <v>1</v>
+      </c>
+      <c r="F425" t="n">
+        <v>43252.53126298456</v>
+      </c>
+      <c r="G425" t="n">
+        <v>4995.25146484375</v>
+      </c>
+      <c r="H425" t="n">
+        <v>29257.279647460266</v>
+      </c>
+      <c r="I425" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>118</v>
+      </c>
+      <c r="B426" t="s">
+        <v>46</v>
+      </c>
+      <c r="C426" t="s">
+        <v>16</v>
+      </c>
+      <c r="D426" t="s">
+        <v>16</v>
+      </c>
+      <c r="E426" t="b">
+        <v>1</v>
+      </c>
+      <c r="F426" t="n">
+        <v>37279.254065837005</v>
+      </c>
+      <c r="G426" t="n">
+        <v>4521.708984375</v>
+      </c>
+      <c r="H426" t="n">
+        <v>23757.54489263449</v>
+      </c>
+      <c r="I426" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>118</v>
+      </c>
+      <c r="B427" t="s">
+        <v>38</v>
+      </c>
+      <c r="C427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" t="b">
+        <v>1</v>
+      </c>
+      <c r="F427" t="n">
+        <v>17163.04687806269</v>
+      </c>
+      <c r="G427" t="n">
+        <v>3120.250732421875</v>
+      </c>
+      <c r="H427" t="n">
+        <v>5042.796046458685</v>
+      </c>
+      <c r="I427" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>118</v>
+      </c>
+      <c r="B428" t="s">
+        <v>39</v>
+      </c>
+      <c r="C428" t="s">
+        <v>8</v>
+      </c>
+      <c r="D428" t="s">
+        <v>8</v>
+      </c>
+      <c r="E428" t="b">
+        <v>1</v>
+      </c>
+      <c r="F428" t="n">
+        <v>15730.63304561645</v>
+      </c>
+      <c r="G428" t="n">
+        <v>3145.373291015625</v>
+      </c>
+      <c r="H428" t="n">
+        <v>3585.2597240832483</v>
+      </c>
+      <c r="I428" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>118</v>
+      </c>
+      <c r="B429" t="s">
+        <v>41</v>
+      </c>
+      <c r="C429" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429" t="s">
+        <v>8</v>
+      </c>
+      <c r="E429" t="b">
+        <v>1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>15219.984791541536</v>
+      </c>
+      <c r="G429" t="n">
+        <v>2708.929443359375</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3511.0554530863355</v>
+      </c>
+      <c r="I429" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B430" t="s">
+        <v>42</v>
+      </c>
+      <c r="C430" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" t="s">
+        <v>8</v>
+      </c>
+      <c r="E430" t="b">
+        <v>1</v>
+      </c>
+      <c r="F430" t="n">
+        <v>14032.696022399492</v>
+      </c>
+      <c r="G430" t="n">
+        <v>2008.2159423828125</v>
+      </c>
+      <c r="H430" t="n">
+        <v>3024.4800800166795</v>
+      </c>
+      <c r="I430" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>118</v>
+      </c>
+      <c r="B431" t="s">
+        <v>40</v>
+      </c>
+      <c r="C431" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431" t="s">
+        <v>8</v>
+      </c>
+      <c r="E431" t="b">
+        <v>1</v>
+      </c>
+      <c r="F431" t="n">
+        <v>15612.790191803353</v>
+      </c>
+      <c r="G431" t="n">
+        <v>3228.932861328125</v>
+      </c>
+      <c r="H431" t="n">
+        <v>3383.8572770694655</v>
+      </c>
+      <c r="I431" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>118</v>
+      </c>
+      <c r="B432" t="s">
+        <v>43</v>
+      </c>
+      <c r="C432" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432" t="s">
+        <v>8</v>
+      </c>
+      <c r="E432" t="b">
+        <v>1</v>
+      </c>
+      <c r="F432" t="n">
+        <v>15803.195043409134</v>
+      </c>
+      <c r="G432" t="n">
+        <v>3282.5771484375</v>
+      </c>
+      <c r="H432" t="n">
+        <v>3520.6178415658715</v>
+      </c>
+      <c r="I432" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>118</v>
+      </c>
+      <c r="B433" t="s">
+        <v>44</v>
+      </c>
+      <c r="C433" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" t="s">
+        <v>8</v>
+      </c>
+      <c r="E433" t="b">
+        <v>1</v>
+      </c>
+      <c r="F433" t="n">
+        <v>15189.397011274348</v>
+      </c>
+      <c r="G433" t="n">
+        <v>3132.698974609375</v>
+      </c>
+      <c r="H433" t="n">
+        <v>3056.6980366649736</v>
+      </c>
+      <c r="I433" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>118</v>
+      </c>
+      <c r="B434" t="s">
+        <v>45</v>
+      </c>
+      <c r="C434" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434" t="s">
+        <v>8</v>
+      </c>
+      <c r="E434" t="b">
+        <v>1</v>
+      </c>
+      <c r="F434" t="n">
+        <v>13418.94824803985</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2930.08056640625</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1488.8676282278368</v>
+      </c>
+      <c r="I434" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>118</v>
+      </c>
+      <c r="B435" t="s">
+        <v>46</v>
+      </c>
+      <c r="C435" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" t="s">
+        <v>8</v>
+      </c>
+      <c r="E435" t="b">
+        <v>1</v>
+      </c>
+      <c r="F435" t="n">
+        <v>12780.19860016914</v>
+      </c>
+      <c r="G435" t="n">
+        <v>2971.502197265625</v>
+      </c>
+      <c r="H435" t="n">
+        <v>808.6965173444326</v>
+      </c>
+      <c r="I435" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>118</v>
+      </c>
+      <c r="B436" t="s">
+        <v>38</v>
+      </c>
+      <c r="C436" t="s">
+        <v>5</v>
+      </c>
+      <c r="D436" t="s">
+        <v>5</v>
+      </c>
+      <c r="E436" t="b">
+        <v>1</v>
+      </c>
+      <c r="F436" t="n">
+        <v>32833.78448372733</v>
+      </c>
+      <c r="G436" t="n">
+        <v>4385.32763671875</v>
+      </c>
+      <c r="H436" t="n">
+        <v>19448.456801232212</v>
+      </c>
+      <c r="I436" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>118</v>
+      </c>
+      <c r="B437" t="s">
+        <v>39</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437" t="s">
+        <v>5</v>
+      </c>
+      <c r="E437" t="b">
+        <v>1</v>
+      </c>
+      <c r="F437" t="n">
+        <v>26772.27069068955</v>
+      </c>
+      <c r="G437" t="n">
+        <v>4049.98388671875</v>
+      </c>
+      <c r="H437" t="n">
+        <v>13722.286826858985</v>
+      </c>
+      <c r="I437" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>118</v>
+      </c>
+      <c r="B438" t="s">
+        <v>41</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>5</v>
+      </c>
+      <c r="E438" t="b">
+        <v>1</v>
+      </c>
+      <c r="F438" t="n">
+        <v>22836.393242710594</v>
+      </c>
+      <c r="G438" t="n">
+        <v>4297.9951171875</v>
+      </c>
+      <c r="H438" t="n">
+        <v>9538.398278110984</v>
+      </c>
+      <c r="I438" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>118</v>
+      </c>
+      <c r="B439" t="s">
+        <v>42</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>5</v>
+      </c>
+      <c r="E439" t="b">
+        <v>1</v>
+      </c>
+      <c r="F439" t="n">
+        <v>18805.07202214114</v>
+      </c>
+      <c r="G439" t="n">
+        <v>4975.4951171875</v>
+      </c>
+      <c r="H439" t="n">
+        <v>4829.577076615016</v>
+      </c>
+      <c r="I439" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>118</v>
+      </c>
+      <c r="B440" t="s">
+        <v>40</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s">
+        <v>5</v>
+      </c>
+      <c r="E440" t="b">
+        <v>1</v>
+      </c>
+      <c r="F440" t="n">
+        <v>33905.192411114804</v>
+      </c>
+      <c r="G440" t="n">
+        <v>4481.77880859375</v>
+      </c>
+      <c r="H440" t="n">
+        <v>20423.413446118466</v>
+      </c>
+      <c r="I440" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>118</v>
+      </c>
+      <c r="B441" t="s">
+        <v>43</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s">
+        <v>5</v>
+      </c>
+      <c r="E441" t="b">
+        <v>1</v>
+      </c>
+      <c r="F441" t="n">
+        <v>27621.159143810943</v>
+      </c>
+      <c r="G441" t="n">
+        <v>4296.0849609375</v>
+      </c>
+      <c r="H441" t="n">
+        <v>14325.074087506011</v>
+      </c>
+      <c r="I441" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>118</v>
+      </c>
+      <c r="B442" t="s">
+        <v>44</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" t="s">
+        <v>5</v>
+      </c>
+      <c r="E442" t="b">
+        <v>1</v>
+      </c>
+      <c r="F442" t="n">
+        <v>29932.6073945563</v>
+      </c>
+      <c r="G442" t="n">
+        <v>4326.03173828125</v>
+      </c>
+      <c r="H442" t="n">
+        <v>16606.57567153384</v>
+      </c>
+      <c r="I442" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>118</v>
+      </c>
+      <c r="B443" t="s">
+        <v>45</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" t="s">
+        <v>5</v>
+      </c>
+      <c r="E443" t="b">
+        <v>1</v>
+      </c>
+      <c r="F443" t="n">
+        <v>23396.76817321045</v>
+      </c>
+      <c r="G443" t="n">
+        <v>3889.284423828125</v>
+      </c>
+      <c r="H443" t="n">
+        <v>10507.48369979126</v>
+      </c>
+      <c r="I443" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>118</v>
+      </c>
+      <c r="B444" t="s">
+        <v>46</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444" t="s">
+        <v>5</v>
+      </c>
+      <c r="E444" t="b">
+        <v>1</v>
+      </c>
+      <c r="F444" t="n">
+        <v>18250.537876184204</v>
+      </c>
+      <c r="G444" t="n">
+        <v>3735.349365234375</v>
+      </c>
+      <c r="H444" t="n">
+        <v>5515.188610131957</v>
+      </c>
+      <c r="I444" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>118</v>
+      </c>
+      <c r="B445" t="s">
+        <v>38</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
+      <c r="F445" t="n">
+        <v>39398.759793689795</v>
+      </c>
+      <c r="G445" t="n">
+        <v>4316.5615234375</v>
+      </c>
+      <c r="H445" t="n">
+        <v>26082.198277881685</v>
+      </c>
+      <c r="I445" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>118</v>
+      </c>
+      <c r="B446" t="s">
+        <v>39</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" t="b">
+        <v>1</v>
+      </c>
+      <c r="F446" t="n">
+        <v>29400.593665992063</v>
+      </c>
+      <c r="G446" t="n">
+        <v>3783.201416015625</v>
+      </c>
+      <c r="H446" t="n">
+        <v>16617.39224616174</v>
+      </c>
+      <c r="I446" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>118</v>
+      </c>
+      <c r="B447" t="s">
+        <v>41</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="b">
+        <v>1</v>
+      </c>
+      <c r="F447" t="n">
+        <v>22830.41175310048</v>
+      </c>
+      <c r="G447" t="n">
+        <v>3000.89013671875</v>
+      </c>
+      <c r="H447" t="n">
+        <v>10829.521665972796</v>
+      </c>
+      <c r="I447" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>118</v>
+      </c>
+      <c r="B448" t="s">
+        <v>42</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" t="b">
+        <v>1</v>
+      </c>
+      <c r="F448" t="n">
+        <v>17819.41091599222</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2772.92724609375</v>
+      </c>
+      <c r="H448" t="n">
+        <v>6046.483656547029</v>
+      </c>
+      <c r="I448" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>118</v>
+      </c>
+      <c r="B449" t="s">
+        <v>40</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" t="b">
+        <v>1</v>
+      </c>
+      <c r="F449" t="n">
+        <v>30804.623258272346</v>
+      </c>
+      <c r="G449" t="n">
+        <v>3988.114990234375</v>
+      </c>
+      <c r="H449" t="n">
+        <v>17816.50821463221</v>
+      </c>
+      <c r="I449" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>118</v>
+      </c>
+      <c r="B450" t="s">
+        <v>43</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" t="b">
+        <v>1</v>
+      </c>
+      <c r="F450" t="n">
+        <v>31968.996243090245</v>
+      </c>
+      <c r="G450" t="n">
+        <v>3911.18359375</v>
+      </c>
+      <c r="H450" t="n">
+        <v>19057.812691301915</v>
+      </c>
+      <c r="I450" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>118</v>
+      </c>
+      <c r="B451" t="s">
+        <v>44</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E451" t="b">
+        <v>1</v>
+      </c>
+      <c r="F451" t="n">
+        <v>30782.93993592974</v>
+      </c>
+      <c r="G451" t="n">
+        <v>4158.77685546875</v>
+      </c>
+      <c r="H451" t="n">
+        <v>17624.16312242266</v>
+      </c>
+      <c r="I451" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>118</v>
+      </c>
+      <c r="B452" t="s">
+        <v>45</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" t="b">
+        <v>1</v>
+      </c>
+      <c r="F452" t="n">
+        <v>25638.720425651398</v>
+      </c>
+      <c r="G452" t="n">
+        <v>3362.16259765625</v>
+      </c>
+      <c r="H452" t="n">
+        <v>13276.557793662872</v>
+      </c>
+      <c r="I452" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>118</v>
+      </c>
+      <c r="B453" t="s">
+        <v>46</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="b">
+        <v>1</v>
+      </c>
+      <c r="F453" t="n">
+        <v>19212.22047521799</v>
+      </c>
+      <c r="G453" t="n">
+        <v>3045.95703125</v>
+      </c>
+      <c r="H453" t="n">
+        <v>7166.263516447239</v>
+      </c>
+      <c r="I453" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>118</v>
+      </c>
+      <c r="B454" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454" t="b">
+        <v>1</v>
+      </c>
+      <c r="F454" t="n">
+        <v>37827.86109605846</v>
+      </c>
+      <c r="G454" t="n">
+        <v>4535.7314453125</v>
+      </c>
+      <c r="H454" t="n">
+        <v>24292.129521046252</v>
+      </c>
+      <c r="I454" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>118</v>
+      </c>
+      <c r="B455" t="s">
+        <v>39</v>
+      </c>
+      <c r="C455" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+      <c r="E455" t="b">
+        <v>1</v>
+      </c>
+      <c r="F455" t="n">
+        <v>26521.399420194917</v>
+      </c>
+      <c r="G455" t="n">
+        <v>3610.64404296875</v>
+      </c>
+      <c r="H455" t="n">
+        <v>13910.755266599946</v>
+      </c>
+      <c r="I455" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>118</v>
+      </c>
+      <c r="B456" t="s">
+        <v>41</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+      <c r="E456" t="b">
+        <v>1</v>
+      </c>
+      <c r="F456" t="n">
+        <v>21787.024804631692</v>
+      </c>
+      <c r="G456" t="n">
+        <v>3688.30224609375</v>
+      </c>
+      <c r="H456" t="n">
+        <v>9098.722617665751</v>
+      </c>
+      <c r="I456" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>118</v>
+      </c>
+      <c r="B457" t="s">
+        <v>42</v>
+      </c>
+      <c r="C457" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" t="s">
+        <v>7</v>
+      </c>
+      <c r="E457" t="b">
+        <v>1</v>
+      </c>
+      <c r="F457" t="n">
+        <v>18536.88441401732</v>
+      </c>
+      <c r="G457" t="n">
+        <v>5032.4541015625</v>
+      </c>
+      <c r="H457" t="n">
+        <v>4504.430079758286</v>
+      </c>
+      <c r="I457" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>118</v>
+      </c>
+      <c r="B458" t="s">
+        <v>40</v>
+      </c>
+      <c r="C458" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" t="b">
+        <v>1</v>
+      </c>
+      <c r="F458" t="n">
+        <v>32940.07382641059</v>
+      </c>
+      <c r="G458" t="n">
+        <v>4693.80419921875</v>
+      </c>
+      <c r="H458" t="n">
+        <v>19246.269539453806</v>
+      </c>
+      <c r="I458" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>118</v>
+      </c>
+      <c r="B459" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" t="b">
+        <v>1</v>
+      </c>
+      <c r="F459" t="n">
+        <v>35996.41429711487</v>
+      </c>
+      <c r="G459" t="n">
+        <v>4614.46044921875</v>
+      </c>
+      <c r="H459" t="n">
+        <v>22381.953958522343</v>
+      </c>
+      <c r="I459" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>118</v>
+      </c>
+      <c r="B460" t="s">
+        <v>44</v>
+      </c>
+      <c r="C460" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" t="b">
+        <v>1</v>
+      </c>
+      <c r="F460" t="n">
+        <v>32682.960650530447</v>
+      </c>
+      <c r="G460" t="n">
+        <v>4403.265625</v>
+      </c>
+      <c r="H460" t="n">
+        <v>19279.695014086356</v>
+      </c>
+      <c r="I460" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>118</v>
+      </c>
+      <c r="B461" t="s">
+        <v>45</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" t="b">
+        <v>1</v>
+      </c>
+      <c r="F461" t="n">
+        <v>26939.86508941391</v>
+      </c>
+      <c r="G461" t="n">
+        <v>3666.9677734375</v>
+      </c>
+      <c r="H461" t="n">
+        <v>14272.897365567474</v>
+      </c>
+      <c r="I461" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>118</v>
+      </c>
+      <c r="B462" t="s">
+        <v>46</v>
+      </c>
+      <c r="C462" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" t="b">
+        <v>1</v>
+      </c>
+      <c r="F462" t="n">
+        <v>18816.172722345113</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2566.471923828125</v>
+      </c>
+      <c r="H462" t="n">
+        <v>7249.700764184713</v>
+      </c>
+      <c r="I462" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>118</v>
+      </c>
+      <c r="B463" t="s">
+        <v>38</v>
+      </c>
+      <c r="C463" t="s">
+        <v>9</v>
+      </c>
+      <c r="D463" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" t="b">
+        <v>1</v>
+      </c>
+      <c r="F463" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H463" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I463" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>118</v>
+      </c>
+      <c r="B464" t="s">
+        <v>39</v>
+      </c>
+      <c r="C464" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="b">
+        <v>1</v>
+      </c>
+      <c r="F464" t="n">
+        <v>16245.411493838783</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2531.57080078125</v>
+      </c>
+      <c r="H464" t="n">
+        <v>4713.8407006869265</v>
+      </c>
+      <c r="I464" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>118</v>
+      </c>
+      <c r="B465" t="s">
+        <v>41</v>
+      </c>
+      <c r="C465" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" t="b">
+        <v>1</v>
+      </c>
+      <c r="F465" t="n">
+        <v>17698.46943536604</v>
+      </c>
+      <c r="G465" t="n">
+        <v>2290.24658203125</v>
+      </c>
+      <c r="H465" t="n">
+        <v>6408.222738893873</v>
+      </c>
+      <c r="I465" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>118</v>
+      </c>
+      <c r="B466" t="s">
+        <v>42</v>
+      </c>
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" t="b">
+        <v>1</v>
+      </c>
+      <c r="F466" t="n">
+        <v>15897.534371143083</v>
+      </c>
+      <c r="G466" t="n">
+        <v>1697.856201171875</v>
+      </c>
+      <c r="H466" t="n">
+        <v>5199.678139453631</v>
+      </c>
+      <c r="I466" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>118</v>
+      </c>
+      <c r="B467" t="s">
+        <v>40</v>
+      </c>
+      <c r="C467" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" t="s">
+        <v>9</v>
+      </c>
+      <c r="E467" t="b">
+        <v>1</v>
+      </c>
+      <c r="F467" t="n">
+        <v>14584.871783800612</v>
+      </c>
+      <c r="G467" t="n">
+        <v>2732.649658203125</v>
+      </c>
+      <c r="H467" t="n">
+        <v>2852.222217150221</v>
+      </c>
+      <c r="I467" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>118</v>
+      </c>
+      <c r="B468" t="s">
+        <v>43</v>
+      </c>
+      <c r="C468" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" t="s">
+        <v>9</v>
+      </c>
+      <c r="E468" t="b">
+        <v>1</v>
+      </c>
+      <c r="F468" t="n">
+        <v>15093.160377885097</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2594.1005859375</v>
+      </c>
+      <c r="H468" t="n">
+        <v>3499.0598682415416</v>
+      </c>
+      <c r="I468" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>118</v>
+      </c>
+      <c r="B469" t="s">
+        <v>44</v>
+      </c>
+      <c r="C469" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" t="s">
+        <v>9</v>
+      </c>
+      <c r="E469" t="b">
+        <v>1</v>
+      </c>
+      <c r="F469" t="n">
+        <v>13854.356980450599</v>
+      </c>
+      <c r="G469" t="n">
+        <v>2649.6181640625</v>
+      </c>
+      <c r="H469" t="n">
+        <v>2204.738854535072</v>
+      </c>
+      <c r="I469" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>118</v>
+      </c>
+      <c r="B470" t="s">
+        <v>45</v>
+      </c>
+      <c r="C470" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" t="s">
+        <v>9</v>
+      </c>
+      <c r="E470" t="b">
+        <v>1</v>
+      </c>
+      <c r="F470" t="n">
+        <v>12641.766411681678</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2150.9677734375</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1490.7987450557005</v>
+      </c>
+      <c r="I470" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>118</v>
+      </c>
+      <c r="B471" t="s">
+        <v>46</v>
+      </c>
+      <c r="C471" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" t="s">
+        <v>9</v>
+      </c>
+      <c r="E471" t="b">
+        <v>1</v>
+      </c>
+      <c r="F471" t="n">
+        <v>12134.932952374553</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1949.1329345703125</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1185.8000635806072</v>
+      </c>
+      <c r="I471" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>118</v>
+      </c>
+      <c r="B472" t="s">
+        <v>38</v>
+      </c>
+      <c r="C472" t="s">
+        <v>4</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472" t="b">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>37981.75699187126</v>
+      </c>
+      <c r="G472" t="n">
+        <v>4631.328125</v>
+      </c>
+      <c r="H472" t="n">
+        <v>24350.42885733452</v>
+      </c>
+      <c r="I472" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>118</v>
+      </c>
+      <c r="B473" t="s">
+        <v>39</v>
+      </c>
+      <c r="C473" t="s">
+        <v>4</v>
+      </c>
+      <c r="D473" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473" t="b">
+        <v>0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>31907.36393789548</v>
+      </c>
+      <c r="G473" t="n">
+        <v>4600.1630859375</v>
+      </c>
+      <c r="H473" t="n">
+        <v>18307.200760405245</v>
+      </c>
+      <c r="I473" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>118</v>
+      </c>
+      <c r="B474" t="s">
+        <v>41</v>
+      </c>
+      <c r="C474" t="s">
+        <v>4</v>
+      </c>
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" t="b">
+        <v>0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>24863.769775542376</v>
+      </c>
+      <c r="G474" t="n">
+        <v>3890.388427734375</v>
+      </c>
+      <c r="H474" t="n">
+        <v>11973.381343993304</v>
+      </c>
+      <c r="I474" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>118</v>
+      </c>
+      <c r="B475" t="s">
+        <v>42</v>
+      </c>
+      <c r="C475" t="s">
+        <v>4</v>
+      </c>
+      <c r="D475" t="s">
+        <v>4</v>
+      </c>
+      <c r="E475" t="b">
+        <v>0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>16485.36183280662</v>
+      </c>
+      <c r="G475" t="n">
+        <v>3007.449462890625</v>
+      </c>
+      <c r="H475" t="n">
+        <v>4477.912366101295</v>
+      </c>
+      <c r="I475" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>118</v>
+      </c>
+      <c r="B476" t="s">
+        <v>40</v>
+      </c>
+      <c r="C476" t="s">
+        <v>4</v>
+      </c>
+      <c r="D476" t="s">
+        <v>4</v>
+      </c>
+      <c r="E476" t="b">
+        <v>0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>38485.533332273015</v>
+      </c>
+      <c r="G476" t="n">
+        <v>4582.802734375</v>
+      </c>
+      <c r="H476" t="n">
+        <v>24902.73081342841</v>
+      </c>
+      <c r="I476" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>118</v>
+      </c>
+      <c r="B477" t="s">
+        <v>43</v>
+      </c>
+      <c r="C477" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477" t="s">
+        <v>4</v>
+      </c>
+      <c r="E477" t="b">
+        <v>0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>33936.186623242495</v>
+      </c>
+      <c r="G477" t="n">
+        <v>4444.40234375</v>
+      </c>
+      <c r="H477" t="n">
+        <v>20491.78412118256</v>
+      </c>
+      <c r="I477" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>118</v>
+      </c>
+      <c r="B478" t="s">
+        <v>44</v>
+      </c>
+      <c r="C478" t="s">
+        <v>4</v>
+      </c>
+      <c r="D478" t="s">
+        <v>4</v>
+      </c>
+      <c r="E478" t="b">
+        <v>0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>34306.088994556936</v>
+      </c>
+      <c r="G478" t="n">
+        <v>4481.662109375</v>
+      </c>
+      <c r="H478" t="n">
+        <v>20824.4270091596</v>
+      </c>
+      <c r="I478" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>118</v>
+      </c>
+      <c r="B479" t="s">
+        <v>45</v>
+      </c>
+      <c r="C479" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479" t="s">
+        <v>4</v>
+      </c>
+      <c r="E479" t="b">
+        <v>0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>31241.826651692485</v>
+      </c>
+      <c r="G479" t="n">
+        <v>4246.5810546875</v>
+      </c>
+      <c r="H479" t="n">
+        <v>17995.245692372417</v>
+      </c>
+      <c r="I479" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>118</v>
+      </c>
+      <c r="B480" t="s">
+        <v>46</v>
+      </c>
+      <c r="C480" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" t="s">
+        <v>4</v>
+      </c>
+      <c r="E480" t="b">
+        <v>0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>24068.35065131328</v>
+      </c>
+      <c r="G480" t="n">
+        <v>3857.16845703125</v>
+      </c>
+      <c r="H480" t="n">
+        <v>11211.182270575979</v>
+      </c>
+      <c r="I480" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>118</v>
+      </c>
+      <c r="B481" t="s">
+        <v>38</v>
+      </c>
+      <c r="C481" t="s">
+        <v>16</v>
+      </c>
+      <c r="D481" t="s">
+        <v>16</v>
+      </c>
+      <c r="E481" t="b">
+        <v>1</v>
+      </c>
+      <c r="F481" t="n">
+        <v>54569.65757061087</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5770.96240234375</v>
+      </c>
+      <c r="H481" t="n">
+        <v>39798.69521595084</v>
+      </c>
+      <c r="I481" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>118</v>
+      </c>
+      <c r="B482" t="s">
+        <v>39</v>
+      </c>
+      <c r="C482" t="s">
+        <v>16</v>
+      </c>
+      <c r="D482" t="s">
+        <v>16</v>
+      </c>
+      <c r="E482" t="b">
+        <v>1</v>
+      </c>
+      <c r="F482" t="n">
+        <v>41057.6061619448</v>
+      </c>
+      <c r="G482" t="n">
+        <v>4954.9609375</v>
+      </c>
+      <c r="H482" t="n">
+        <v>27102.645037524635</v>
+      </c>
+      <c r="I482" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>118</v>
+      </c>
+      <c r="B483" t="s">
+        <v>41</v>
+      </c>
+      <c r="C483" t="s">
+        <v>16</v>
+      </c>
+      <c r="D483" t="s">
+        <v>16</v>
+      </c>
+      <c r="E483" t="b">
+        <v>1</v>
+      </c>
+      <c r="F483" t="n">
+        <v>32416.70374274945</v>
+      </c>
+      <c r="G483" t="n">
+        <v>3904.415283203125</v>
+      </c>
+      <c r="H483" t="n">
+        <v>19512.288545377014</v>
+      </c>
+      <c r="I483" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>118</v>
+      </c>
+      <c r="B484" t="s">
+        <v>42</v>
+      </c>
+      <c r="C484" t="s">
+        <v>16</v>
+      </c>
+      <c r="D484" t="s">
+        <v>16</v>
+      </c>
+      <c r="E484" t="b">
+        <v>1</v>
+      </c>
+      <c r="F484" t="n">
+        <v>21217.96476801864</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2967.667236328125</v>
+      </c>
+      <c r="H484" t="n">
+        <v>9250.297419156943</v>
+      </c>
+      <c r="I484" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>118</v>
+      </c>
+      <c r="B485" t="s">
+        <v>40</v>
+      </c>
+      <c r="C485" t="s">
+        <v>16</v>
+      </c>
+      <c r="D485" t="s">
+        <v>16</v>
+      </c>
+      <c r="E485" t="b">
+        <v>1</v>
+      </c>
+      <c r="F485" t="n">
+        <v>50634.66844951277</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5322.0888671875</v>
+      </c>
+      <c r="H485" t="n">
+        <v>36312.579631916335</v>
+      </c>
+      <c r="I485" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>118</v>
+      </c>
+      <c r="B486" t="s">
+        <v>43</v>
+      </c>
+      <c r="C486" t="s">
+        <v>16</v>
+      </c>
+      <c r="D486" t="s">
+        <v>16</v>
+      </c>
+      <c r="E486" t="b">
+        <v>1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>48335.93297789429</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5215.412109375</v>
+      </c>
+      <c r="H486" t="n">
+        <v>34120.520738819585</v>
+      </c>
+      <c r="I486" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>118</v>
+      </c>
+      <c r="B487" t="s">
+        <v>44</v>
+      </c>
+      <c r="C487" t="s">
+        <v>16</v>
+      </c>
+      <c r="D487" t="s">
+        <v>16</v>
+      </c>
+      <c r="E487" t="b">
+        <v>1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>47825.53183036416</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5324.14208984375</v>
+      </c>
+      <c r="H487" t="n">
+        <v>33501.38956122964</v>
+      </c>
+      <c r="I487" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>118</v>
+      </c>
+      <c r="B488" t="s">
+        <v>45</v>
+      </c>
+      <c r="C488" t="s">
+        <v>16</v>
+      </c>
+      <c r="D488" t="s">
+        <v>16</v>
+      </c>
+      <c r="E488" t="b">
+        <v>1</v>
+      </c>
+      <c r="F488" t="n">
+        <v>43252.53126298456</v>
+      </c>
+      <c r="G488" t="n">
+        <v>4995.25146484375</v>
+      </c>
+      <c r="H488" t="n">
+        <v>29257.279647460266</v>
+      </c>
+      <c r="I488" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>118</v>
+      </c>
+      <c r="B489" t="s">
+        <v>46</v>
+      </c>
+      <c r="C489" t="s">
+        <v>16</v>
+      </c>
+      <c r="D489" t="s">
+        <v>16</v>
+      </c>
+      <c r="E489" t="b">
+        <v>1</v>
+      </c>
+      <c r="F489" t="n">
+        <v>37279.254065837005</v>
+      </c>
+      <c r="G489" t="n">
+        <v>4521.708984375</v>
+      </c>
+      <c r="H489" t="n">
+        <v>23757.54489263449</v>
+      </c>
+      <c r="I489" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>118</v>
+      </c>
+      <c r="B490" t="s">
+        <v>38</v>
+      </c>
+      <c r="C490" t="s">
+        <v>8</v>
+      </c>
+      <c r="D490" t="s">
+        <v>8</v>
+      </c>
+      <c r="E490" t="b">
+        <v>1</v>
+      </c>
+      <c r="F490" t="n">
+        <v>17163.04687806269</v>
+      </c>
+      <c r="G490" t="n">
+        <v>3120.250732421875</v>
+      </c>
+      <c r="H490" t="n">
+        <v>5042.796046458685</v>
+      </c>
+      <c r="I490" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>118</v>
+      </c>
+      <c r="B491" t="s">
+        <v>39</v>
+      </c>
+      <c r="C491" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491" t="s">
+        <v>8</v>
+      </c>
+      <c r="E491" t="b">
+        <v>1</v>
+      </c>
+      <c r="F491" t="n">
+        <v>15730.63304561645</v>
+      </c>
+      <c r="G491" t="n">
+        <v>3145.373291015625</v>
+      </c>
+      <c r="H491" t="n">
+        <v>3585.2597240832483</v>
+      </c>
+      <c r="I491" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>118</v>
+      </c>
+      <c r="B492" t="s">
+        <v>41</v>
+      </c>
+      <c r="C492" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492" t="s">
+        <v>8</v>
+      </c>
+      <c r="E492" t="b">
+        <v>1</v>
+      </c>
+      <c r="F492" t="n">
+        <v>15219.984791541536</v>
+      </c>
+      <c r="G492" t="n">
+        <v>2708.929443359375</v>
+      </c>
+      <c r="H492" t="n">
+        <v>3511.0554530863355</v>
+      </c>
+      <c r="I492" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>118</v>
+      </c>
+      <c r="B493" t="s">
+        <v>42</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" t="s">
+        <v>8</v>
+      </c>
+      <c r="E493" t="b">
+        <v>1</v>
+      </c>
+      <c r="F493" t="n">
+        <v>14032.696022399492</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2008.2159423828125</v>
+      </c>
+      <c r="H493" t="n">
+        <v>3024.4800800166795</v>
+      </c>
+      <c r="I493" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>118</v>
+      </c>
+      <c r="B494" t="s">
+        <v>40</v>
+      </c>
+      <c r="C494" t="s">
+        <v>8</v>
+      </c>
+      <c r="D494" t="s">
+        <v>8</v>
+      </c>
+      <c r="E494" t="b">
+        <v>1</v>
+      </c>
+      <c r="F494" t="n">
+        <v>15612.790191803353</v>
+      </c>
+      <c r="G494" t="n">
+        <v>3228.932861328125</v>
+      </c>
+      <c r="H494" t="n">
+        <v>3383.8572770694655</v>
+      </c>
+      <c r="I494" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>118</v>
+      </c>
+      <c r="B495" t="s">
+        <v>43</v>
+      </c>
+      <c r="C495" t="s">
+        <v>8</v>
+      </c>
+      <c r="D495" t="s">
+        <v>8</v>
+      </c>
+      <c r="E495" t="b">
+        <v>1</v>
+      </c>
+      <c r="F495" t="n">
+        <v>15803.195043409134</v>
+      </c>
+      <c r="G495" t="n">
+        <v>3282.5771484375</v>
+      </c>
+      <c r="H495" t="n">
+        <v>3520.6178415658715</v>
+      </c>
+      <c r="I495" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>118</v>
+      </c>
+      <c r="B496" t="s">
+        <v>44</v>
+      </c>
+      <c r="C496" t="s">
+        <v>8</v>
+      </c>
+      <c r="D496" t="s">
+        <v>8</v>
+      </c>
+      <c r="E496" t="b">
+        <v>1</v>
+      </c>
+      <c r="F496" t="n">
+        <v>15189.397011274348</v>
+      </c>
+      <c r="G496" t="n">
+        <v>3132.698974609375</v>
+      </c>
+      <c r="H496" t="n">
+        <v>3056.6980366649736</v>
+      </c>
+      <c r="I496" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>118</v>
+      </c>
+      <c r="B497" t="s">
+        <v>45</v>
+      </c>
+      <c r="C497" t="s">
+        <v>8</v>
+      </c>
+      <c r="D497" t="s">
+        <v>8</v>
+      </c>
+      <c r="E497" t="b">
+        <v>1</v>
+      </c>
+      <c r="F497" t="n">
+        <v>13418.94824803985</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2930.08056640625</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1488.8676282278368</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>118</v>
+      </c>
+      <c r="B498" t="s">
+        <v>46</v>
+      </c>
+      <c r="C498" t="s">
+        <v>8</v>
+      </c>
+      <c r="D498" t="s">
+        <v>8</v>
+      </c>
+      <c r="E498" t="b">
+        <v>1</v>
+      </c>
+      <c r="F498" t="n">
+        <v>12780.19860016914</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2971.502197265625</v>
+      </c>
+      <c r="H498" t="n">
+        <v>808.6965173444326</v>
+      </c>
+      <c r="I498" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>118</v>
+      </c>
+      <c r="B499" t="s">
+        <v>38</v>
+      </c>
+      <c r="C499" t="s">
+        <v>5</v>
+      </c>
+      <c r="D499" t="s">
+        <v>5</v>
+      </c>
+      <c r="E499" t="b">
+        <v>1</v>
+      </c>
+      <c r="F499" t="n">
+        <v>32833.78448372733</v>
+      </c>
+      <c r="G499" t="n">
+        <v>4385.32763671875</v>
+      </c>
+      <c r="H499" t="n">
+        <v>19448.456801232212</v>
+      </c>
+      <c r="I499" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>118</v>
+      </c>
+      <c r="B500" t="s">
+        <v>39</v>
+      </c>
+      <c r="C500" t="s">
+        <v>5</v>
+      </c>
+      <c r="D500" t="s">
+        <v>5</v>
+      </c>
+      <c r="E500" t="b">
+        <v>1</v>
+      </c>
+      <c r="F500" t="n">
+        <v>26772.27069068955</v>
+      </c>
+      <c r="G500" t="n">
+        <v>4049.98388671875</v>
+      </c>
+      <c r="H500" t="n">
+        <v>13722.286826858985</v>
+      </c>
+      <c r="I500" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>118</v>
+      </c>
+      <c r="B501" t="s">
+        <v>41</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5</v>
+      </c>
+      <c r="D501" t="s">
+        <v>5</v>
+      </c>
+      <c r="E501" t="b">
+        <v>1</v>
+      </c>
+      <c r="F501" t="n">
+        <v>22836.393242710594</v>
+      </c>
+      <c r="G501" t="n">
+        <v>4297.9951171875</v>
+      </c>
+      <c r="H501" t="n">
+        <v>9538.398278110984</v>
+      </c>
+      <c r="I501" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>118</v>
+      </c>
+      <c r="B502" t="s">
+        <v>42</v>
+      </c>
+      <c r="C502" t="s">
+        <v>5</v>
+      </c>
+      <c r="D502" t="s">
+        <v>5</v>
+      </c>
+      <c r="E502" t="b">
+        <v>1</v>
+      </c>
+      <c r="F502" t="n">
+        <v>18805.07202214114</v>
+      </c>
+      <c r="G502" t="n">
+        <v>4975.4951171875</v>
+      </c>
+      <c r="H502" t="n">
+        <v>4829.577076615016</v>
+      </c>
+      <c r="I502" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>118</v>
+      </c>
+      <c r="B503" t="s">
+        <v>40</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5</v>
+      </c>
+      <c r="D503" t="s">
+        <v>5</v>
+      </c>
+      <c r="E503" t="b">
+        <v>1</v>
+      </c>
+      <c r="F503" t="n">
+        <v>33905.192411114804</v>
+      </c>
+      <c r="G503" t="n">
+        <v>4481.77880859375</v>
+      </c>
+      <c r="H503" t="n">
+        <v>20423.413446118466</v>
+      </c>
+      <c r="I503" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>118</v>
+      </c>
+      <c r="B504" t="s">
+        <v>43</v>
+      </c>
+      <c r="C504" t="s">
+        <v>5</v>
+      </c>
+      <c r="D504" t="s">
+        <v>5</v>
+      </c>
+      <c r="E504" t="b">
+        <v>1</v>
+      </c>
+      <c r="F504" t="n">
+        <v>27621.159143810943</v>
+      </c>
+      <c r="G504" t="n">
+        <v>4296.0849609375</v>
+      </c>
+      <c r="H504" t="n">
+        <v>14325.074087506011</v>
+      </c>
+      <c r="I504" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>118</v>
+      </c>
+      <c r="B505" t="s">
+        <v>44</v>
+      </c>
+      <c r="C505" t="s">
+        <v>5</v>
+      </c>
+      <c r="D505" t="s">
+        <v>5</v>
+      </c>
+      <c r="E505" t="b">
+        <v>1</v>
+      </c>
+      <c r="F505" t="n">
+        <v>29932.6073945563</v>
+      </c>
+      <c r="G505" t="n">
+        <v>4326.03173828125</v>
+      </c>
+      <c r="H505" t="n">
+        <v>16606.57567153384</v>
+      </c>
+      <c r="I505" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>118</v>
+      </c>
+      <c r="B506" t="s">
+        <v>45</v>
+      </c>
+      <c r="C506" t="s">
+        <v>5</v>
+      </c>
+      <c r="D506" t="s">
+        <v>5</v>
+      </c>
+      <c r="E506" t="b">
+        <v>1</v>
+      </c>
+      <c r="F506" t="n">
+        <v>23396.76817321045</v>
+      </c>
+      <c r="G506" t="n">
+        <v>3889.284423828125</v>
+      </c>
+      <c r="H506" t="n">
+        <v>10507.48369979126</v>
+      </c>
+      <c r="I506" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>118</v>
+      </c>
+      <c r="B507" t="s">
+        <v>46</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s">
+        <v>5</v>
+      </c>
+      <c r="E507" t="b">
+        <v>1</v>
+      </c>
+      <c r="F507" t="n">
+        <v>18250.537876184204</v>
+      </c>
+      <c r="G507" t="n">
+        <v>3735.349365234375</v>
+      </c>
+      <c r="H507" t="n">
+        <v>5515.188610131957</v>
+      </c>
+      <c r="I507" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>118</v>
+      </c>
+      <c r="B508" t="s">
+        <v>38</v>
+      </c>
+      <c r="C508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" t="s">
+        <v>6</v>
+      </c>
+      <c r="E508" t="b">
+        <v>1</v>
+      </c>
+      <c r="F508" t="n">
+        <v>39398.759793689795</v>
+      </c>
+      <c r="G508" t="n">
+        <v>4316.5615234375</v>
+      </c>
+      <c r="H508" t="n">
+        <v>26082.198277881685</v>
+      </c>
+      <c r="I508" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>118</v>
+      </c>
+      <c r="B509" t="s">
+        <v>39</v>
+      </c>
+      <c r="C509" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" t="s">
+        <v>6</v>
+      </c>
+      <c r="E509" t="b">
+        <v>1</v>
+      </c>
+      <c r="F509" t="n">
+        <v>29400.593665992063</v>
+      </c>
+      <c r="G509" t="n">
+        <v>3783.201416015625</v>
+      </c>
+      <c r="H509" t="n">
+        <v>16617.39224616174</v>
+      </c>
+      <c r="I509" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>118</v>
+      </c>
+      <c r="B510" t="s">
+        <v>41</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" t="s">
+        <v>6</v>
+      </c>
+      <c r="E510" t="b">
+        <v>1</v>
+      </c>
+      <c r="F510" t="n">
+        <v>22830.41175310048</v>
+      </c>
+      <c r="G510" t="n">
+        <v>3000.89013671875</v>
+      </c>
+      <c r="H510" t="n">
+        <v>10829.521665972796</v>
+      </c>
+      <c r="I510" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>118</v>
+      </c>
+      <c r="B511" t="s">
+        <v>42</v>
+      </c>
+      <c r="C511" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" t="s">
+        <v>6</v>
+      </c>
+      <c r="E511" t="b">
+        <v>1</v>
+      </c>
+      <c r="F511" t="n">
+        <v>17819.41091599222</v>
+      </c>
+      <c r="G511" t="n">
+        <v>2772.92724609375</v>
+      </c>
+      <c r="H511" t="n">
+        <v>6046.483656547029</v>
+      </c>
+      <c r="I511" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>118</v>
+      </c>
+      <c r="B512" t="s">
+        <v>40</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" t="s">
+        <v>6</v>
+      </c>
+      <c r="E512" t="b">
+        <v>1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>30804.623258272346</v>
+      </c>
+      <c r="G512" t="n">
+        <v>3988.114990234375</v>
+      </c>
+      <c r="H512" t="n">
+        <v>17816.50821463221</v>
+      </c>
+      <c r="I512" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>118</v>
+      </c>
+      <c r="B513" t="s">
+        <v>43</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>6</v>
+      </c>
+      <c r="E513" t="b">
+        <v>1</v>
+      </c>
+      <c r="F513" t="n">
+        <v>31968.996243090245</v>
+      </c>
+      <c r="G513" t="n">
+        <v>3911.18359375</v>
+      </c>
+      <c r="H513" t="n">
+        <v>19057.812691301915</v>
+      </c>
+      <c r="I513" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>118</v>
+      </c>
+      <c r="B514" t="s">
+        <v>44</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="s">
+        <v>6</v>
+      </c>
+      <c r="E514" t="b">
+        <v>1</v>
+      </c>
+      <c r="F514" t="n">
+        <v>30782.93993592974</v>
+      </c>
+      <c r="G514" t="n">
+        <v>4158.77685546875</v>
+      </c>
+      <c r="H514" t="n">
+        <v>17624.16312242266</v>
+      </c>
+      <c r="I514" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>118</v>
+      </c>
+      <c r="B515" t="s">
+        <v>45</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="s">
+        <v>6</v>
+      </c>
+      <c r="E515" t="b">
+        <v>1</v>
+      </c>
+      <c r="F515" t="n">
+        <v>25638.720425651398</v>
+      </c>
+      <c r="G515" t="n">
+        <v>3362.16259765625</v>
+      </c>
+      <c r="H515" t="n">
+        <v>13276.557793662872</v>
+      </c>
+      <c r="I515" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>118</v>
+      </c>
+      <c r="B516" t="s">
+        <v>46</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="s">
+        <v>6</v>
+      </c>
+      <c r="E516" t="b">
+        <v>1</v>
+      </c>
+      <c r="F516" t="n">
+        <v>19212.22047521799</v>
+      </c>
+      <c r="G516" t="n">
+        <v>3045.95703125</v>
+      </c>
+      <c r="H516" t="n">
+        <v>7166.263516447239</v>
+      </c>
+      <c r="I516" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>118</v>
+      </c>
+      <c r="B517" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" t="s">
+        <v>7</v>
+      </c>
+      <c r="D517" t="s">
+        <v>7</v>
+      </c>
+      <c r="E517" t="b">
+        <v>1</v>
+      </c>
+      <c r="F517" t="n">
+        <v>37827.86109605846</v>
+      </c>
+      <c r="G517" t="n">
+        <v>4535.7314453125</v>
+      </c>
+      <c r="H517" t="n">
+        <v>24292.129521046252</v>
+      </c>
+      <c r="I517" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>118</v>
+      </c>
+      <c r="B518" t="s">
+        <v>39</v>
+      </c>
+      <c r="C518" t="s">
+        <v>7</v>
+      </c>
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+      <c r="E518" t="b">
+        <v>1</v>
+      </c>
+      <c r="F518" t="n">
+        <v>26521.399420194917</v>
+      </c>
+      <c r="G518" t="n">
+        <v>3610.64404296875</v>
+      </c>
+      <c r="H518" t="n">
+        <v>13910.755266599946</v>
+      </c>
+      <c r="I518" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>118</v>
+      </c>
+      <c r="B519" t="s">
+        <v>41</v>
+      </c>
+      <c r="C519" t="s">
+        <v>7</v>
+      </c>
+      <c r="D519" t="s">
+        <v>7</v>
+      </c>
+      <c r="E519" t="b">
+        <v>1</v>
+      </c>
+      <c r="F519" t="n">
+        <v>21787.024804631692</v>
+      </c>
+      <c r="G519" t="n">
+        <v>3688.30224609375</v>
+      </c>
+      <c r="H519" t="n">
+        <v>9098.722617665751</v>
+      </c>
+      <c r="I519" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>118</v>
+      </c>
+      <c r="B520" t="s">
+        <v>42</v>
+      </c>
+      <c r="C520" t="s">
+        <v>7</v>
+      </c>
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+      <c r="E520" t="b">
+        <v>1</v>
+      </c>
+      <c r="F520" t="n">
+        <v>18536.88441401732</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5032.4541015625</v>
+      </c>
+      <c r="H520" t="n">
+        <v>4504.430079758286</v>
+      </c>
+      <c r="I520" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>118</v>
+      </c>
+      <c r="B521" t="s">
+        <v>40</v>
+      </c>
+      <c r="C521" t="s">
+        <v>7</v>
+      </c>
+      <c r="D521" t="s">
+        <v>7</v>
+      </c>
+      <c r="E521" t="b">
+        <v>1</v>
+      </c>
+      <c r="F521" t="n">
+        <v>32940.07382641059</v>
+      </c>
+      <c r="G521" t="n">
+        <v>4693.80419921875</v>
+      </c>
+      <c r="H521" t="n">
+        <v>19246.269539453806</v>
+      </c>
+      <c r="I521" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>118</v>
+      </c>
+      <c r="B522" t="s">
+        <v>43</v>
+      </c>
+      <c r="C522" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+      <c r="E522" t="b">
+        <v>1</v>
+      </c>
+      <c r="F522" t="n">
+        <v>35996.41429711487</v>
+      </c>
+      <c r="G522" t="n">
+        <v>4614.46044921875</v>
+      </c>
+      <c r="H522" t="n">
+        <v>22381.953958522343</v>
+      </c>
+      <c r="I522" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>118</v>
+      </c>
+      <c r="B523" t="s">
+        <v>44</v>
+      </c>
+      <c r="C523" t="s">
+        <v>7</v>
+      </c>
+      <c r="D523" t="s">
+        <v>7</v>
+      </c>
+      <c r="E523" t="b">
+        <v>1</v>
+      </c>
+      <c r="F523" t="n">
+        <v>32682.960650530447</v>
+      </c>
+      <c r="G523" t="n">
+        <v>4403.265625</v>
+      </c>
+      <c r="H523" t="n">
+        <v>19279.695014086356</v>
+      </c>
+      <c r="I523" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>118</v>
+      </c>
+      <c r="B524" t="s">
+        <v>45</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" t="s">
+        <v>7</v>
+      </c>
+      <c r="E524" t="b">
+        <v>1</v>
+      </c>
+      <c r="F524" t="n">
+        <v>26939.86508941391</v>
+      </c>
+      <c r="G524" t="n">
+        <v>3666.9677734375</v>
+      </c>
+      <c r="H524" t="n">
+        <v>14272.897365567474</v>
+      </c>
+      <c r="I524" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>118</v>
+      </c>
+      <c r="B525" t="s">
+        <v>46</v>
+      </c>
+      <c r="C525" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525" t="s">
+        <v>7</v>
+      </c>
+      <c r="E525" t="b">
+        <v>1</v>
+      </c>
+      <c r="F525" t="n">
+        <v>18816.172722345113</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2566.471923828125</v>
+      </c>
+      <c r="H525" t="n">
+        <v>7249.700764184713</v>
+      </c>
+      <c r="I525" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>118</v>
+      </c>
+      <c r="B526" t="s">
+        <v>38</v>
+      </c>
+      <c r="C526" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" t="s">
+        <v>9</v>
+      </c>
+      <c r="E526" t="b">
+        <v>1</v>
+      </c>
+      <c r="F526" t="n">
+        <v>16075.748856504852</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2682.7685546875</v>
+      </c>
+      <c r="H526" t="n">
+        <v>4392.980240782195</v>
+      </c>
+      <c r="I526" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>118</v>
+      </c>
+      <c r="B527" t="s">
+        <v>39</v>
+      </c>
+      <c r="C527" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" t="s">
+        <v>9</v>
+      </c>
+      <c r="E527" t="b">
+        <v>1</v>
+      </c>
+      <c r="F527" t="n">
+        <v>16245.411493838783</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2531.57080078125</v>
+      </c>
+      <c r="H527" t="n">
+        <v>4713.8407006869265</v>
+      </c>
+      <c r="I527" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>118</v>
+      </c>
+      <c r="B528" t="s">
+        <v>41</v>
+      </c>
+      <c r="C528" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" t="s">
+        <v>9</v>
+      </c>
+      <c r="E528" t="b">
+        <v>1</v>
+      </c>
+      <c r="F528" t="n">
+        <v>17698.46943536604</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2290.24658203125</v>
+      </c>
+      <c r="H528" t="n">
+        <v>6408.222738893873</v>
+      </c>
+      <c r="I528" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>118</v>
+      </c>
+      <c r="B529" t="s">
+        <v>42</v>
+      </c>
+      <c r="C529" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" t="s">
+        <v>9</v>
+      </c>
+      <c r="E529" t="b">
+        <v>1</v>
+      </c>
+      <c r="F529" t="n">
+        <v>15897.534371143083</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1697.856201171875</v>
+      </c>
+      <c r="H529" t="n">
+        <v>5199.678139453631</v>
+      </c>
+      <c r="I529" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>118</v>
+      </c>
+      <c r="B530" t="s">
+        <v>40</v>
+      </c>
+      <c r="C530" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" t="s">
+        <v>9</v>
+      </c>
+      <c r="E530" t="b">
+        <v>1</v>
+      </c>
+      <c r="F530" t="n">
+        <v>14584.871783800612</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2732.649658203125</v>
+      </c>
+      <c r="H530" t="n">
+        <v>2852.222217150221</v>
+      </c>
+      <c r="I530" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>118</v>
+      </c>
+      <c r="B531" t="s">
+        <v>43</v>
+      </c>
+      <c r="C531" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" t="s">
+        <v>9</v>
+      </c>
+      <c r="E531" t="b">
+        <v>1</v>
+      </c>
+      <c r="F531" t="n">
+        <v>15093.160377885097</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2594.1005859375</v>
+      </c>
+      <c r="H531" t="n">
+        <v>3499.0598682415416</v>
+      </c>
+      <c r="I531" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>118</v>
+      </c>
+      <c r="B532" t="s">
+        <v>44</v>
+      </c>
+      <c r="C532" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" t="s">
+        <v>9</v>
+      </c>
+      <c r="E532" t="b">
+        <v>1</v>
+      </c>
+      <c r="F532" t="n">
+        <v>13854.356980450599</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2649.6181640625</v>
+      </c>
+      <c r="H532" t="n">
+        <v>2204.738854535072</v>
+      </c>
+      <c r="I532" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>118</v>
+      </c>
+      <c r="B533" t="s">
+        <v>45</v>
+      </c>
+      <c r="C533" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" t="s">
+        <v>9</v>
+      </c>
+      <c r="E533" t="b">
+        <v>1</v>
+      </c>
+      <c r="F533" t="n">
+        <v>12641.766411681678</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2150.9677734375</v>
+      </c>
+      <c r="H533" t="n">
+        <v>1490.7987450557005</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>118</v>
+      </c>
+      <c r="B534" t="s">
+        <v>46</v>
+      </c>
+      <c r="C534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" t="s">
+        <v>9</v>
+      </c>
+      <c r="E534" t="b">
+        <v>1</v>
+      </c>
+      <c r="F534" t="n">
+        <v>12134.932952374553</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1949.1329345703125</v>
+      </c>
+      <c r="H534" t="n">
+        <v>1185.8000635806072</v>
+      </c>
+      <c r="I534" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13040,16 +17042,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C2">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D2">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E2">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13057,16 +17059,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C3">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D3">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E3">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13074,16 +17076,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C4">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D4">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E4">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13091,16 +17093,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C5">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D5">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E5">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13108,16 +17110,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C6">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D6">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E6">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13125,16 +17127,16 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C7">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D7">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E7">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13142,16 +17144,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C8">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D8">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E8">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -13176,16 +17178,16 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C11">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D11">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E11">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13193,16 +17195,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C12">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D12">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E12">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13210,16 +17212,16 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C13">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D13">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E13">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13227,16 +17229,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C14">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D14">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E14">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13244,16 +17246,16 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C15">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D15">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E15">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13261,16 +17263,16 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C16">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D16">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E16">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13278,16 +17280,16 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C17">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D17">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E17">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -13312,16 +17314,16 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C20">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D20">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E20">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -13329,16 +17331,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C21">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D21">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E21">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13346,16 +17348,16 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C22">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D22">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E22">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13363,16 +17365,16 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C23">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D23">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E23">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -13380,16 +17382,16 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C24">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D24">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E24">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -13397,16 +17399,16 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C25">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D25">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E25">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13414,16 +17416,16 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C26">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D26">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E26">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -13448,16 +17450,16 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C29">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D29">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E29">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13465,16 +17467,16 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C30">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D30">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E30">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -13482,16 +17484,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C31">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D31">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E31">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13499,16 +17501,16 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C32">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D32">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E32">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -13516,16 +17518,16 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C33">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D33">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E33">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13533,16 +17535,16 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C34">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D34">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E34">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -13550,16 +17552,16 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C35">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D35">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E35">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="r2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="r2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13584,16 +17586,16 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C38">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D38">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E38">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13601,16 +17603,16 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C39">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D39">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E39">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13618,16 +17620,16 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C40">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D40">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E40">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13635,16 +17637,16 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C41">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D41">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E41">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13652,16 +17654,16 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C42">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D42">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E42">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -13669,16 +17671,16 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C43">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D43">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E43">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13686,16 +17688,16 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C44">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D44">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E44">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="c1",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="c1",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13720,16 +17722,16 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C47">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D47">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E47">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SAV",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SAV",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13737,16 +17739,16 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C48">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D48">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E48">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="SWT",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="SWT",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13754,16 +17756,16 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C49">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D49">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E49">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I1",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I1",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -13771,16 +17773,16 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C50">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D50">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E50">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I2",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I2",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13788,16 +17790,16 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C51">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D51">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E51">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="I3",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="I3",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -13805,16 +17807,16 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C52">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D52">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E52">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="NN",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="NN",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13822,16 +17824,16 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!F2:F396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!F2:F534)))</f>
       </c>
       <c r="C53">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!G2:G396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!G2:G534)))</f>
       </c>
       <c r="D53">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!H2:H396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!H2:H534)))</f>
       </c>
       <c r="E53">
-        <f>MIN(IF('All Group 4 Results'!A2:A396="rc2",IF('All Group 4 Results'!C2:C396="S",'All Group 4 Results'!I2:I396)))</f>
+        <f>MIN(IF('All Group 4 Results'!A2:A534="rc2",IF('All Group 4 Results'!C2:C534="S",'All Group 4 Results'!I2:I534)))</f>
       </c>
     </row>
   </sheetData>
@@ -14717,16 +18719,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C2">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D2">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E2">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14734,16 +18736,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C3">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D3">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E3">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -14751,16 +18753,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C4">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D4">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E4">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14768,16 +18770,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C5">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D5">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E5">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14785,16 +18787,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C6">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D6">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E6">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14802,16 +18804,16 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C7">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D7">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E7">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14819,16 +18821,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C8">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D8">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E8">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14856,16 +18858,16 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C11">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D11">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E11">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14873,16 +18875,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C12">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D12">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E12">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14890,16 +18892,16 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C13">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D13">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E13">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14907,16 +18909,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C14">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D14">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E14">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14924,16 +18926,16 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C15">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D15">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E15">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14941,16 +18943,16 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C16">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D16">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E16">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14958,16 +18960,16 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C17">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D17">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E17">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14995,16 +18997,16 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C20">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D20">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E20">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15012,16 +19014,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C21">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D21">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E21">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15029,16 +19031,16 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C22">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D22">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E22">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15046,16 +19048,16 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C23">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D23">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E23">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15063,16 +19065,16 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C24">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D24">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E24">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15080,16 +19082,16 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C25">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D25">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E25">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -15097,16 +19099,16 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C26">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D26">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E26">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -15134,16 +19136,16 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C29">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D29">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E29">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15151,16 +19153,16 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C30">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D30">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E30">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -15168,16 +19170,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C31">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D31">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E31">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -15185,16 +19187,16 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C32">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D32">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E32">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -15202,16 +19204,16 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C33">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D33">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E33">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -15219,16 +19221,16 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C34">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D34">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E34">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -15236,16 +19238,16 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C35">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D35">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E35">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"r2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"r2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -15273,16 +19275,16 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C38">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D38">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E38">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -15290,16 +19292,16 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C39">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D39">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E39">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -15307,16 +19309,16 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C40">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D40">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E40">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -15324,16 +19326,16 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C41">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D41">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E41">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15341,16 +19343,16 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C42">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D42">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E42">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -15358,16 +19360,16 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C43">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D43">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E43">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15375,16 +19377,16 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C44">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D44">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E44">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"c1",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"c1",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15412,16 +19414,16 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="C47">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="D47">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
       <c r="E47">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SAV"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SAV"),0)</f>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15429,16 +19431,16 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="C48">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="D48">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
       <c r="E48">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"SWT"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"SWT"),0)</f>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15446,16 +19448,16 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="C49">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="D49">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
       <c r="E49">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I1"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I1"),0)</f>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15463,16 +19465,16 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="C50">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="D50">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
       <c r="E50">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I2"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I2"),0)</f>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15480,16 +19482,16 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="C51">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="D51">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
       <c r="E51">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"I3"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"I3"),0)</f>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -15497,16 +19499,16 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="C52">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="D52">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
       <c r="E52">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"NN"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"NN"),0)</f>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -15514,16 +19516,16 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!F2:F534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="C53">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!G2:G534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="D53">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!H2:H534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
       <c r="E53">
-        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I396,'All Group 4 Results'!A2:A396,"rc2",'All Group 4 Results'!C2:C396,"S"),0)</f>
+        <f>IFERROR(AVERAGEIFS('All Group 4 Results'!I2:I534,'All Group 4 Results'!A2:A534,"rc2",'All Group 4 Results'!C2:C534,"S"),0)</f>
       </c>
     </row>
   </sheetData>
@@ -15603,13 +19605,13 @@
         <v>86</v>
       </c>
       <c r="E3">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A3,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A3,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F3">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A3,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A3,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G3">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A3,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A3,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H3">
         <f>(B3-E3)/B3</f>
@@ -15629,13 +19631,13 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A4,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A4,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F4">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A4,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A4,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G4">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A4,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A4,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H4">
         <f>(B4-E4)/B4</f>
@@ -15655,13 +19657,13 @@
         <v>88</v>
       </c>
       <c r="E5">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A5,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A5,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F5">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A5,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A5,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G5">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A5,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A5,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H5">
         <f>(B5-E5)/B5</f>
@@ -15681,13 +19683,13 @@
         <v>89</v>
       </c>
       <c r="E6">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A6,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A6,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F6">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A6,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A6,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G6">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A6,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A6,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H6">
         <f>(B6-E6)/B6</f>
@@ -15707,13 +19709,13 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A7,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A7,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F7">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A7,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A7,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G7">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A7,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A7,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H7">
         <f>(B7-E7)/B7</f>
@@ -15733,13 +19735,13 @@
         <v>89</v>
       </c>
       <c r="E8">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A8,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A8,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F8">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A8,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A8,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G8">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A8,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A8,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H8">
         <f>(B8-E8)/B8</f>
@@ -15759,13 +19761,13 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A9,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A9,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F9">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A9,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A9,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G9">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A9,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A9,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H9">
         <f>(B9-E9)/B9</f>
@@ -15785,13 +19787,13 @@
         <v>91</v>
       </c>
       <c r="E10">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A10,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A10,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F10">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A10,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A10,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G10">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A10,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A10,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H10">
         <f>(B10-E10)/B10</f>
@@ -15811,13 +19813,13 @@
         <v>92</v>
       </c>
       <c r="E11">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A11,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A11,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F11">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A11,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A11,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G11">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A11,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A11,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H11">
         <f>(B11-E11)/B11</f>
@@ -15837,13 +19839,13 @@
         <v>89</v>
       </c>
       <c r="E12">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A12,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A12,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F12">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A12,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A12,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G12">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A12,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A12,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H12">
         <f>(B12-E12)/B12</f>
@@ -15863,13 +19865,13 @@
         <v>93</v>
       </c>
       <c r="E13">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A13,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A13,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F13">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A13,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A13,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G13">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A13,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A13,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H13">
         <f>(B13-E13)/B13</f>
@@ -15889,13 +19891,13 @@
         <v>94</v>
       </c>
       <c r="E14">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A14,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A14,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F14">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A14,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A14,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G14">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A14,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A14,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H14">
         <f>(B14-E14)/B14</f>
@@ -15915,13 +19917,13 @@
         <v>87</v>
       </c>
       <c r="E15">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A15,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A15,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F15">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A15,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A15,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G15">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A15,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A15,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H15">
         <f>(B15-E15)/B15</f>
@@ -15941,13 +19943,13 @@
         <v>87</v>
       </c>
       <c r="E16">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A16,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A16,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F16">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A16,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A16,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G16">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A16,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A16,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H16">
         <f>(B16-E16)/B16</f>
@@ -15967,13 +19969,13 @@
         <v>87</v>
       </c>
       <c r="E17">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A17,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A17,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F17">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A17,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A17,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G17">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A17,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A17,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H17">
         <f>(B17-E17)/B17</f>
@@ -15993,13 +19995,13 @@
         <v>87</v>
       </c>
       <c r="E18">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A18,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A18,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F18">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A18,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A18,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G18">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A18,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A18,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H18">
         <f>(B18-E18)/B18</f>
@@ -16019,13 +20021,13 @@
         <v>87</v>
       </c>
       <c r="E19">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A19,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A19,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F19">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A19,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A19,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G19">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A19,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A19,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H19">
         <f>(B19-E19)/B19</f>
@@ -16045,13 +20047,13 @@
         <v>87</v>
       </c>
       <c r="E20">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A20,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A20,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F20">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A20,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A20,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G20">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A20,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A20,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H20">
         <f>(B20-E20)/B20</f>
@@ -16071,13 +20073,13 @@
         <v>87</v>
       </c>
       <c r="E21">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A21,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A21,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F21">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A21,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A21,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G21">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A21,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A21,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H21">
         <f>(B21-E21)/B21</f>
@@ -16097,13 +20099,13 @@
         <v>87</v>
       </c>
       <c r="E22">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A22,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A22,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F22">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A22,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A22,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G22">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A22,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A22,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H22">
         <f>(B22-E22)/B22</f>
@@ -16123,13 +20125,13 @@
         <v>87</v>
       </c>
       <c r="E23">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A23,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A23,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F23">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A23,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A23,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G23">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A23,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A23,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H23">
         <f>(B23-E23)/B23</f>
@@ -16149,13 +20151,13 @@
         <v>95</v>
       </c>
       <c r="E24">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A24,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A24,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F24">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A24,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A24,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G24">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A24,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A24,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H24">
         <f>(B24-E24)/B24</f>
@@ -16175,13 +20177,13 @@
         <v>95</v>
       </c>
       <c r="E25">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A25,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A25,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F25">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A25,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A25,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G25">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A25,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A25,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H25">
         <f>(B25-E25)/B25</f>
@@ -16201,13 +20203,13 @@
         <v>96</v>
       </c>
       <c r="E26">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A26,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A26,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F26">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A26,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A26,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G26">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A26,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A26,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H26">
         <f>(B26-E26)/B26</f>
@@ -16227,13 +20229,13 @@
         <v>97</v>
       </c>
       <c r="E27">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A27,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A27,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F27">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A27,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A27,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G27">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A27,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A27,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H27">
         <f>(B27-E27)/B27</f>
@@ -16253,13 +20255,13 @@
         <v>91</v>
       </c>
       <c r="E28">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A28,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A28,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F28">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A28,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A28,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G28">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A28,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A28,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H28">
         <f>(B28-E28)/B28</f>
@@ -16279,13 +20281,13 @@
         <v>91</v>
       </c>
       <c r="E29">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A29,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A29,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F29">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A29,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A29,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G29">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A29,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A29,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H29">
         <f>(B29-E29)/B29</f>
@@ -16305,13 +20307,13 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A30,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A30,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F30">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A30,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A30,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G30">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A30,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A30,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H30">
         <f>(B30-E30)/B30</f>
@@ -16331,13 +20333,13 @@
         <v>95</v>
       </c>
       <c r="E31">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A31,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A31,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F31">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A31,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A31,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G31">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A31,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A31,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H31">
         <f>(B31-E31)/B31</f>
@@ -16357,13 +20359,13 @@
         <v>92</v>
       </c>
       <c r="E32">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A32,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A32,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F32">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A32,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A32,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G32">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A32,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A32,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H32">
         <f>(B32-E32)/B32</f>
@@ -16383,13 +20385,13 @@
         <v>93</v>
       </c>
       <c r="E33">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A33,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A33,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F33">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A33,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A33,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G33">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A33,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A33,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H33">
         <f>(B33-E33)/B33</f>
@@ -16409,13 +20411,13 @@
         <v>89</v>
       </c>
       <c r="E34">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A34,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A34,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F34">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A34,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A34,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G34">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A34,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A34,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H34">
         <f>(B34-E34)/B34</f>
@@ -16435,13 +20437,13 @@
         <v>98</v>
       </c>
       <c r="E35">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A35,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A35,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F35">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A35,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A35,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G35">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A35,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A35,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H35">
         <f>(B35-E35)/B35</f>
@@ -16461,13 +20463,13 @@
         <v>93</v>
       </c>
       <c r="E36">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A36,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A36,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F36">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A36,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A36,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G36">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A36,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A36,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H36">
         <f>(B36-E36)/B36</f>
@@ -16487,13 +20489,13 @@
         <v>99</v>
       </c>
       <c r="E37">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A37,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A37,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F37">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A37,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A37,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G37">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A37,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A37,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H37">
         <f>(B37-E37)/B37</f>
@@ -16513,13 +20515,13 @@
         <v>98</v>
       </c>
       <c r="E38">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A38,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A38,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F38">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A38,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A38,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G38">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A38,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A38,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H38">
         <f>(B38-E38)/B38</f>
@@ -16539,13 +20541,13 @@
         <v>89</v>
       </c>
       <c r="E39">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A39,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A39,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F39">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A39,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A39,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G39">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A39,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A39,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H39">
         <f>(B39-E39)/B39</f>
@@ -16565,13 +20567,13 @@
         <v>86</v>
       </c>
       <c r="E40">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A40,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A40,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F40">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A40,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A40,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G40">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A40,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A40,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H40">
         <f>(B40-E40)/B40</f>
@@ -16591,13 +20593,13 @@
         <v>89</v>
       </c>
       <c r="E41">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A41,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A41,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F41">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A41,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A41,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G41">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A41,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A41,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H41">
         <f>(B41-E41)/B41</f>
@@ -16617,13 +20619,13 @@
         <v>98</v>
       </c>
       <c r="E42">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A42,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A42,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F42">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A42,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A42,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G42">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A42,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A42,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H42">
         <f>(B42-E42)/B42</f>
@@ -16643,13 +20645,13 @@
         <v>87</v>
       </c>
       <c r="E43">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A43,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A43,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F43">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A43,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A43,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G43">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A43,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A43,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H43">
         <f>(B43-E43)/B43</f>
@@ -16669,13 +20671,13 @@
         <v>87</v>
       </c>
       <c r="E44">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A44,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A44,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F44">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A44,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A44,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G44">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A44,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A44,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H44">
         <f>(B44-E44)/B44</f>
@@ -16695,13 +20697,13 @@
         <v>87</v>
       </c>
       <c r="E45">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A45,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A45,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F45">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A45,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A45,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G45">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A45,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A45,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H45">
         <f>(B45-E45)/B45</f>
@@ -16721,13 +20723,13 @@
         <v>87</v>
       </c>
       <c r="E46">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A46,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A46,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F46">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A46,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A46,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G46">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A46,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A46,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H46">
         <f>(B46-E46)/B46</f>
@@ -16747,13 +20749,13 @@
         <v>87</v>
       </c>
       <c r="E47">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A47,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A47,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F47">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A47,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A47,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G47">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A47,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A47,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H47">
         <f>(B47-E47)/B47</f>
@@ -16773,13 +20775,13 @@
         <v>87</v>
       </c>
       <c r="E48">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A48,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A48,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F48">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A48,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A48,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G48">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A48,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A48,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H48">
         <f>(B48-E48)/B48</f>
@@ -16799,13 +20801,13 @@
         <v>87</v>
       </c>
       <c r="E49">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A49,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A49,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F49">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A49,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A49,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G49">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A49,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A49,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H49">
         <f>(B49-E49)/B49</f>
@@ -16825,13 +20827,13 @@
         <v>87</v>
       </c>
       <c r="E50">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A50,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A50,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F50">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A50,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A50,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G50">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A50,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A50,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H50">
         <f>(B50-E50)/B50</f>
@@ -16851,13 +20853,13 @@
         <v>89</v>
       </c>
       <c r="E51">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A51,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A51,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F51">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A51,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A51,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G51">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A51,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A51,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H51">
         <f>(B51-E51)/B51</f>
@@ -16877,13 +20879,13 @@
         <v>100</v>
       </c>
       <c r="E52">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A52,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A52,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F52">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A52,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A52,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G52">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A52,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A52,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H52">
         <f>(B52-E52)/B52</f>
@@ -16903,13 +20905,13 @@
         <v>100</v>
       </c>
       <c r="E53">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A53,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A53,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F53">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A53,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A53,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G53">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A53,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A53,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H53">
         <f>(B53-E53)/B53</f>
@@ -16929,13 +20931,13 @@
         <v>89</v>
       </c>
       <c r="E54">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A54,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A54,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F54">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A54,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A54,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G54">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A54,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A54,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H54">
         <f>(B54-E54)/B54</f>
@@ -16955,13 +20957,13 @@
         <v>89</v>
       </c>
       <c r="E55">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A55,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A55,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F55">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A55,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A55,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G55">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A55,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A55,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H55">
         <f>(B55-E55)/B55</f>
@@ -16981,13 +20983,13 @@
         <v>86</v>
       </c>
       <c r="E56">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A56,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A56,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F56">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A56,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A56,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G56">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A56,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A56,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H56">
         <f>(B56-E56)/B56</f>
@@ -17007,13 +21009,13 @@
         <v>98</v>
       </c>
       <c r="E57">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A57,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A57,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F57">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A57,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A57,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G57">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A57,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A57,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H57">
         <f>(B57-E57)/B57</f>
@@ -17033,13 +21035,13 @@
         <v>101</v>
       </c>
       <c r="E58">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A58,'All Group 4 Results'!G2:G396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A58,'All Group 4 Results'!G2:G534))</f>
       </c>
       <c r="F58">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A58,'All Group 4 Results'!I2:I396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A58,'All Group 4 Results'!I2:I534))</f>
       </c>
       <c r="G58">
-        <f>MIN(IF('All Group 4 Results'!B2:B396=A58,'All Group 4 Results'!C2:C396))</f>
+        <f>MIN(IF('All Group 4 Results'!B2:B534=A58,'All Group 4 Results'!C2:C534))</f>
       </c>
       <c r="H58">
         <f>(B58-E58)/B58</f>
